--- a/Recurring.xlsx
+++ b/Recurring.xlsx
@@ -8,28 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenny\Documents\Kenny\Coding\NSB-AlgoProg-Group-Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26B5A775-F2B0-484A-8D46-989DC88B2540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A40957D-7096-4A93-974B-FBEBA71DEB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{CB76F8F3-00B7-4ABD-A1C4-2ABDEDB5CAA6}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -42,6 +28,9 @@
     <t>Entry</t>
   </si>
   <si>
+    <t>Recurrence of Transaction</t>
+  </si>
+  <si>
     <t>I/E</t>
   </si>
   <si>
@@ -51,22 +40,22 @@
     <t>Category</t>
   </si>
   <si>
-    <t>2024-10-15</t>
+    <t>WATER</t>
   </si>
   <si>
     <t>I</t>
   </si>
   <si>
-    <t>INCOME</t>
+    <t>EXPENSE</t>
   </si>
   <si>
     <t>ELECTRICITY</t>
   </si>
   <si>
-    <t>E</t>
+    <t>2024-10-15</t>
   </si>
   <si>
-    <t>EXPENSE</t>
+    <t>E</t>
   </si>
   <si>
     <t>COMMISSION</t>
@@ -75,16 +64,13 @@
     <t>2024-10-14</t>
   </si>
   <si>
+    <t>INCOME</t>
+  </si>
+  <si>
     <t>LOAN INTEREST</t>
   </si>
   <si>
     <t>TRANSPORT</t>
-  </si>
-  <si>
-    <t>Recurrence of Transaction</t>
-  </si>
-  <si>
-    <t>WATER</t>
   </si>
 </sst>
 </file>
@@ -160,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -187,12 +173,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -508,11 +488,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23874DB-6F97-42CC-9D68-0B26C9BD8E6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B10" sqref="B8:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -532,16 +512,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.75">
@@ -549,17 +529,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="5">
         <v>3000</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.75">
@@ -567,19 +547,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="5">
         <v>600</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.75">
@@ -587,19 +567,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="5">
         <v>1000</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.75">
@@ -607,19 +587,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="5">
         <v>1000</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.75">
@@ -627,19 +607,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" s="5">
         <v>500</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.75">
@@ -647,30 +627,30 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7" s="9">
         <v>1200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" s="1">

--- a/Recurring.xlsx
+++ b/Recurring.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>

--- a/Recurring.xlsx
+++ b/Recurring.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
